--- a/USERSTORIES.xlsx
+++ b/USERSTORIES.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>FEATURES</t>
   </si>
@@ -41,15 +41,6 @@
     <t>PAYMENT</t>
   </si>
   <si>
-    <t>ADD DETAILS</t>
-  </si>
-  <si>
-    <t>UPDATE DETAILS</t>
-  </si>
-  <si>
-    <t>DELETE DETAILS</t>
-  </si>
-  <si>
     <t>USER</t>
   </si>
   <si>
@@ -68,12 +59,6 @@
     <t>SERVICE REQUEST STATUS</t>
   </si>
   <si>
-    <t>ACCEPT</t>
-  </si>
-  <si>
-    <t>REJECT</t>
-  </si>
-  <si>
     <t>EMPLOYEE</t>
   </si>
   <si>
@@ -116,31 +101,85 @@
     <t>DETAILES</t>
   </si>
   <si>
-    <t xml:space="preserve">     REGISRATION APPROVAL/DECLINE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      SERVICE APPROVE /DECLINE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    AVAILABILTY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                  REGISTRATION</t>
-  </si>
-  <si>
     <t xml:space="preserve">               MONTHLY REPORT</t>
   </si>
   <si>
     <t xml:space="preserve">                   COMPLAINTS</t>
   </si>
   <si>
-    <t xml:space="preserve">                   REGISTRATION</t>
-  </si>
-  <si>
     <t xml:space="preserve">             SERVICE REQUEST STATUS</t>
   </si>
   <si>
     <t xml:space="preserve">                         SERVICES  </t>
+  </si>
+  <si>
+    <t>REGISTRATION</t>
+  </si>
+  <si>
+    <t>VIEW REPORT</t>
+  </si>
+  <si>
+    <t>DOWNLOAD REPORT</t>
+  </si>
+  <si>
+    <t>ADD REPORT</t>
+  </si>
+  <si>
+    <t>DELETE REPORT</t>
+  </si>
+  <si>
+    <t>SERVICE REQUEST</t>
+  </si>
+  <si>
+    <t>USER REGISTRAION</t>
+  </si>
+  <si>
+    <t>AVAILABLE STAFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERVICE </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AVAILABILTY</t>
+  </si>
+  <si>
+    <t>DELETE REQUEST</t>
+  </si>
+  <si>
+    <t>UPDATE PROFILE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  LOGOUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                         LOGOUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        PROFILE </t>
+  </si>
+  <si>
+    <t>EDIT PROFILE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPROVE / PENDING USER REGISTRAION </t>
+  </si>
+  <si>
+    <t>APPROVE /PENDING EMPLOYEE REGISTRATION</t>
+  </si>
+  <si>
+    <t>SIGNIN</t>
+  </si>
+  <si>
+    <t>SEND COMPLAINTS</t>
+  </si>
+  <si>
+    <t>VIEW REQUEST</t>
+  </si>
+  <si>
+    <t>ADD AVAILABLE DATE</t>
+  </si>
+  <si>
+    <t>DELETE DATE</t>
   </si>
 </sst>
 </file>
@@ -487,22 +526,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.85546875" customWidth="1"/>
     <col min="2" max="2" width="32.140625" customWidth="1"/>
-    <col min="3" max="4" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
@@ -513,10 +553,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -527,122 +567,134 @@
     <row r="4" spans="1:4" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>8</v>
+      <c r="B14" s="4"/>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="B17" s="4"/>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="C19" t="s">
-        <v>17</v>
+      <c r="B19" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>14</v>
+      <c r="B20" s="4"/>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-      <c r="C22" t="s">
-        <v>15</v>
+      <c r="B22" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>34</v>
+      <c r="B23" s="4"/>
+      <c r="C23" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>16</v>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -650,112 +702,180 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
-      <c r="C29" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+      <c r="C44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="4"/>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="4"/>
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C52" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="4"/>
-      <c r="C32" t="s">
+      <c r="D52" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="4"/>
-      <c r="C33" t="s">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C53" s="4"/>
+      <c r="D53" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="4" t="s">
+    <row r="54" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="4"/>
+      <c r="D54" t="s">
         <v>21</v>
       </c>
-      <c r="C35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="4"/>
-      <c r="C36" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C38" s="4" t="s">
+    </row>
+    <row r="55" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D55" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C39" s="4"/>
-      <c r="D39" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="4"/>
-      <c r="D40" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D41" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C42" s="4"/>
-      <c r="D42" t="s">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C56" s="4"/>
+      <c r="D56" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="C41:C42"/>
+  <mergeCells count="14">
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="C55:C56"/>
     <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B25:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/USERSTORIES.xlsx
+++ b/USERSTORIES.xlsx
@@ -164,9 +164,6 @@
     <t xml:space="preserve">APPROVE / PENDING USER REGISTRAION </t>
   </si>
   <si>
-    <t>APPROVE /PENDING EMPLOYEE REGISTRATION</t>
-  </si>
-  <si>
     <t>SIGNIN</t>
   </si>
   <si>
@@ -180,6 +177,9 @@
   </si>
   <si>
     <t>DELETE DATE</t>
+  </si>
+  <si>
+    <t>EMPLOYEE REGISTRATION</t>
   </si>
 </sst>
 </file>
@@ -528,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,7 +593,7 @@
     <row r="9" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -638,13 +638,13 @@
         <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -694,7 +694,7 @@
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -733,7 +733,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -804,7 +804,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">

--- a/USERSTORIES.xlsx
+++ b/USERSTORIES.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
   <si>
     <t>FEATURES</t>
   </si>
@@ -50,9 +50,6 @@
     <t>LOGIN</t>
   </si>
   <si>
-    <t>LOGOUT</t>
-  </si>
-  <si>
     <t>FORGOT PASSWORD</t>
   </si>
   <si>
@@ -147,12 +144,6 @@
   </si>
   <si>
     <t>UPDATE PROFILE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  LOGOUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                         LOGOUT</t>
   </si>
   <si>
     <t xml:space="preserve">                        PROFILE </t>
@@ -526,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,10 +544,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -573,38 +564,38 @@
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -618,264 +609,242 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" t="s">
-        <v>34</v>
+      <c r="B27" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="4"/>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>12</v>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>42</v>
+      <c r="B37" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
       <c r="C38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="4" t="s">
+      <c r="B43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="4"/>
-      <c r="C44" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="4"/>
-      <c r="C45" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="4"/>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="4" t="s">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C49" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="4"/>
-      <c r="C50" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C50" s="4"/>
+      <c r="D50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="4"/>
+      <c r="D51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C52" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D52" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C53" s="4"/>
       <c r="D53" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="4"/>
-      <c r="D54" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D55" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C56" s="4"/>
-      <c r="D56" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="C55:C56"/>
+  <mergeCells count="13">
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="C52:C53"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B37:B39"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B19:B20"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B23:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/USERSTORIES.xlsx
+++ b/USERSTORIES.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
   <si>
     <t>FEATURES</t>
   </si>
@@ -41,9 +41,6 @@
     <t>PAYMENT</t>
   </si>
   <si>
-    <t>USER</t>
-  </si>
-  <si>
     <t>USER STORIES FOR SMART GARBAGE SYSETM</t>
   </si>
   <si>
@@ -65,12 +62,6 @@
     <t>PROFILE</t>
   </si>
   <si>
-    <t>ADD</t>
-  </si>
-  <si>
-    <t>DELETE</t>
-  </si>
-  <si>
     <t>AVAILABILITY</t>
   </si>
   <si>
@@ -95,15 +86,6 @@
     <t>TASK1</t>
   </si>
   <si>
-    <t>DETAILES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               MONTHLY REPORT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                   COMPLAINTS</t>
-  </si>
-  <si>
     <t xml:space="preserve">             SERVICE REQUEST STATUS</t>
   </si>
   <si>
@@ -125,9 +107,6 @@
     <t>DELETE REPORT</t>
   </si>
   <si>
-    <t>SERVICE REQUEST</t>
-  </si>
-  <si>
     <t>USER REGISTRAION</t>
   </si>
   <si>
@@ -146,9 +125,6 @@
     <t>UPDATE PROFILE</t>
   </si>
   <si>
-    <t xml:space="preserve">                        PROFILE </t>
-  </si>
-  <si>
     <t>EDIT PROFILE</t>
   </si>
   <si>
@@ -171,6 +147,36 @@
   </si>
   <si>
     <t>EMPLOYEE REGISTRATION</t>
+  </si>
+  <si>
+    <t>ADD SERVICES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELETE SERVICE </t>
+  </si>
+  <si>
+    <t>REQUEST NOTIFICATON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  MONTHLY REPORT</t>
+  </si>
+  <si>
+    <t>COMPLAINTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROFILE </t>
+  </si>
+  <si>
+    <t>VIEW AVAILABILTY</t>
+  </si>
+  <si>
+    <t>SEND REQUEST FOR CHANGE AVAILABLE DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USER  </t>
+  </si>
+  <si>
+    <t>REPAIR DETAILES</t>
   </si>
 </sst>
 </file>
@@ -233,8 +239,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -517,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,7 +541,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
@@ -544,62 +552,75 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="C8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="C9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-    </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C12" t="s">
@@ -607,244 +628,296 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="3"/>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="3"/>
       <c r="C14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="3"/>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="3"/>
       <c r="C18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="3"/>
+      <c r="C23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
-      <c r="C21" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
       <c r="C24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
+      <c r="A25" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="3"/>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="3"/>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="3"/>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="3"/>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="3"/>
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="3"/>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="4"/>
-      <c r="C26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
+      <c r="B35" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="3"/>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="3"/>
+      <c r="C39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="3"/>
+      <c r="C40" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="4"/>
-      <c r="C38" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="4"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="4" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="C42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="4"/>
-      <c r="C41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="4"/>
-      <c r="C42" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="3"/>
+      <c r="C45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="C47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" t="s">
         <v>15</v>
       </c>
-      <c r="C46" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="4"/>
-      <c r="C47" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C49" s="4" t="s">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="C48" s="3"/>
+      <c r="D48" t="s">
         <v>16</v>
       </c>
+    </row>
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="C49" s="3"/>
       <c r="D49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="C50" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C50" s="4"/>
       <c r="D50" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="4"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="C51" s="3"/>
       <c r="D51" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="3:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C53" s="4"/>
-      <c r="D53" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="C52:C53"/>
+  <mergeCells count="19">
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C50:C51"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B35:B37"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A3:A18"/>
+    <mergeCell ref="A19:A34"/>
+    <mergeCell ref="A35:A51"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B44:B45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
